--- a/Results/VecAdd.xlsx
+++ b/Results/VecAdd.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\University\2020\HPC\HPC-Assignment2\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A463A128-3E8C-469E-AAE9-CAC0456C8820}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73D16FB-B342-40DE-9510-1F2F1DF712EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2040" windowWidth="13785" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$C$116</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$C$144</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="112">
   <si>
     <t>Kernel</t>
   </si>
@@ -56,21 +56,12 @@
     <t>CPU</t>
   </si>
   <si>
-    <t xml:space="preserve"> Run Time</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.119328 ms</t>
   </si>
   <si>
-    <t xml:space="preserve"> Speed Up</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.000000x</t>
   </si>
   <si>
-    <t xml:space="preserve"> Throughputs</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.274604 GFLOP/s</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
     <t xml:space="preserve"> 0.201773 GFLOP/s</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ratio of Throughputs</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.734778</t>
   </si>
   <si>
@@ -206,36 +194,6 @@
     <t xml:space="preserve"> 0.300200 GFLOP/s</t>
   </si>
   <si>
-    <t>Number of threads = 128</t>
-  </si>
-  <si>
-    <t>GPU(Shared) Tile Size = 128</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.115232 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.132019x</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.940231 GFLOP/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.932896 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.744177x</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.124001 GFLOP/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.744177</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.124128 ms</t>
   </si>
   <si>
@@ -263,36 +221,6 @@
     <t>-------------------N = 4194304----------------</t>
   </si>
   <si>
-    <t xml:space="preserve"> 14.507840 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.289106 GFLOP/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.346240 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.335565x</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.253438 GFLOP/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.335565</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.251232 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.462259x</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.290066 GFLOP/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.462260</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 3.721056 ms</t>
   </si>
   <si>
@@ -315,19 +243,154 @@
   </si>
   <si>
     <t xml:space="preserve"> 2.924174</t>
+  </si>
+  <si>
+    <t>Run Time</t>
+  </si>
+  <si>
+    <t>Speed Up</t>
+  </si>
+  <si>
+    <t>Throughputs</t>
+  </si>
+  <si>
+    <t>Ratio of Throughputs</t>
+  </si>
+  <si>
+    <t>12.392448 ms</t>
+  </si>
+  <si>
+    <t>0.338456 GFLOP/s</t>
+  </si>
+  <si>
+    <t>3.837856 ms</t>
+  </si>
+  <si>
+    <t>3.229003x</t>
+  </si>
+  <si>
+    <t>1.092877 GFLOP/s</t>
+  </si>
+  <si>
+    <t>3.229003</t>
+  </si>
+  <si>
+    <t>3.658400 ms</t>
+  </si>
+  <si>
+    <t>1.146486 GFLOP/s</t>
+  </si>
+  <si>
+    <t>3.38739x</t>
+  </si>
+  <si>
+    <t>3.387396</t>
+  </si>
+  <si>
+    <t>1.059424 ms</t>
+  </si>
+  <si>
+    <t>3.038300x</t>
+  </si>
+  <si>
+    <t>0.989760 GFLOP/s</t>
+  </si>
+  <si>
+    <t>3.038300</t>
+  </si>
+  <si>
+    <t>1.019904 ms</t>
+  </si>
+  <si>
+    <t>3.156030x</t>
+  </si>
+  <si>
+    <t>1.028112 GFLOP/s</t>
+  </si>
+  <si>
+    <t>3.156030</t>
+  </si>
+  <si>
+    <t>1.000000x</t>
+  </si>
+  <si>
+    <t>-------------------N = 8192----------------</t>
+  </si>
+  <si>
+    <t>0.633141</t>
+  </si>
+  <si>
+    <t>0.888889</t>
+  </si>
+  <si>
+    <t>0.574335</t>
+  </si>
+  <si>
+    <t>0.639930</t>
+  </si>
+  <si>
+    <t>0.038816 ms</t>
+  </si>
+  <si>
+    <t>0.027648 ms</t>
+  </si>
+  <si>
+    <t>0.040896 ms</t>
+  </si>
+  <si>
+    <t>0.024576 ms</t>
+  </si>
+  <si>
+    <t>0.036704 ms</t>
+  </si>
+  <si>
+    <t>1x</t>
+  </si>
+  <si>
+    <t>0.633141x</t>
+  </si>
+  <si>
+    <t>0.888889x</t>
+  </si>
+  <si>
+    <t>0.574335x</t>
+  </si>
+  <si>
+    <t>0.639930x</t>
+  </si>
+  <si>
+    <t>0.333333 GFLOP/s</t>
+  </si>
+  <si>
+    <t>0.211047 GFLOP/s</t>
+  </si>
+  <si>
+    <t>0.296296 GFLOP/s</t>
+  </si>
+  <si>
+    <t>0.200313 GFLOP/s</t>
+  </si>
+  <si>
+    <t>0.223191 GFLOP/s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -350,9 +413,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,8 +459,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{760C3C7B-E8FC-4B78-A55A-BBDFF50CB711}" name="Results_of_Vec_add" displayName="Results_of_Vec_add" ref="A1:C116" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C116" xr:uid="{A564F2DF-7DB1-4136-9B02-E8D83508B2E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{760C3C7B-E8FC-4B78-A55A-BBDFF50CB711}" name="Results_of_Vec_add" displayName="Results_of_Vec_add" ref="A1:C144" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C144" xr:uid="{A564F2DF-7DB1-4136-9B02-E8D83508B2E9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7DE0BCF9-3DC5-4A24-89A9-D3033ECFEE53}" uniqueName="1" name="Kernel" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{1EB38B1E-4D61-486E-87FC-25D3CAE72371}" uniqueName="2" name="Metric" queryTableFieldId="2" dataDxfId="1"/>
@@ -667,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4021841F-8AC2-4B76-B9D5-BD0CE8C58194}">
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,316 +758,232 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+      <c r="A2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>27</v>
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>28</v>
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>4</v>
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>30</v>
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>31</v>
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>32</v>
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>33</v>
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>4</v>
@@ -1012,13 +994,13 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1026,10 +1008,10 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1037,26 +1019,26 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>4</v>
@@ -1067,7 +1049,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>4</v>
@@ -1078,117 +1060,117 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>4</v>
@@ -1199,7 +1181,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>4</v>
@@ -1210,117 +1192,117 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>4</v>
@@ -1331,13 +1313,13 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1345,10 +1327,10 @@
         <v>5</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1356,26 +1338,26 @@
         <v>5</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>4</v>
@@ -1386,7 +1368,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>4</v>
@@ -1397,117 +1379,117 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>4</v>
@@ -1518,7 +1500,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>4</v>
@@ -1529,117 +1511,117 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>4</v>
@@ -1650,13 +1632,13 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1664,10 +1646,10 @@
         <v>5</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1675,26 +1657,26 @@
         <v>5</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>4</v>
@@ -1705,7 +1687,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>4</v>
@@ -1716,117 +1698,117 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>4</v>
@@ -1837,7 +1819,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>4</v>
@@ -1848,112 +1830,418 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C111" s="1"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>92</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
